--- a/ex_corr/tmpXLS/tmpБелов.xlsx
+++ b/ex_corr/tmpXLS/tmpБелов.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
-    <sheet name="export_230414_1857" sheetId="1" r:id="rId1"/>
+    <sheet name="export_230418_1001" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="347">
   <si>
     <t>Дата оформления  заявления-квитанции</t>
   </si>
@@ -1011,10 +1011,46 @@
     <t xml:space="preserve"> С-МА/12-04-2023/238281617</t>
   </si>
   <si>
+    <t xml:space="preserve"> ТКА-ПКМ(13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ЛАБКОМПЛЕКС ООО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000-017216</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-017216-2023-13 703</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17.04.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/17-04-2023/239055264</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16.04.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ЦЕНТР ГИГИЕНЫ И ЭПИДЕМИОЛОГИИ В СМОЛЕНСКОЙ ОБЛАСТИ ФБУЗ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0300-001207</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-0300-001207-2023-824</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И-МА/17-04-2023/239474332</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-0300-001207-2023-331</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/17-04-2023/239474481</t>
+  </si>
+  <si>
     <t xml:space="preserve"> КОНЦЕРН РОСЭНЕРГОАТОМ АО</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Принято АРШИНом   </t>
   </si>
   <si>
     <t xml:space="preserve"> 1000-018344</t>
@@ -1850,7 +1886,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN54"/>
+  <dimension ref="A1:AN57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8324,10 +8360,10 @@
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>45028</v>
+        <v>45023</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>330</v>
       </c>
       <c r="C54" t="s">
         <v>38</v>
@@ -8336,13 +8372,13 @@
         <v>39</v>
       </c>
       <c r="E54" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F54" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G54" t="s">
-        <v>331</v>
+        <v>41</v>
       </c>
       <c r="H54" t="s">
         <v>42</v>
@@ -8351,10 +8387,10 @@
         <v>43</v>
       </c>
       <c r="J54" t="s">
-        <v>88</v>
-      </c>
-      <c r="K54">
-        <v>311</v>
+        <v>68</v>
+      </c>
+      <c r="K54" s="2">
+        <v>13703</v>
       </c>
       <c r="L54" t="s">
         <v>43</v>
@@ -8363,13 +8399,13 @@
         <v>43</v>
       </c>
       <c r="N54">
-        <v>4347.2</v>
+        <v>7600</v>
       </c>
       <c r="O54" t="s">
         <v>43</v>
       </c>
       <c r="P54">
-        <v>585835</v>
+        <v>584601</v>
       </c>
       <c r="Q54" t="s">
         <v>332</v>
@@ -8381,10 +8417,10 @@
         <v>43</v>
       </c>
       <c r="T54" t="s">
-        <v>70</v>
+        <v>261</v>
       </c>
       <c r="U54" t="s">
-        <v>71</v>
+        <v>262</v>
       </c>
       <c r="V54" t="s">
         <v>333</v>
@@ -8393,22 +8429,22 @@
         <v>62</v>
       </c>
       <c r="X54" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="Y54" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="Z54" t="s">
         <v>52</v>
       </c>
       <c r="AA54">
-        <v>7721632827</v>
+        <v>7716225865</v>
       </c>
       <c r="AB54" t="s">
         <v>43</v>
       </c>
       <c r="AC54">
-        <v>7721632827</v>
+        <v>7716225865</v>
       </c>
       <c r="AD54" t="s">
         <v>43</v>
@@ -8417,30 +8453,396 @@
         <v>53</v>
       </c>
       <c r="AF54" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH54">
+        <v>584601</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>335</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>334</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" t="s">
+        <v>337</v>
+      </c>
+      <c r="G55" t="s">
+        <v>41</v>
+      </c>
+      <c r="H55" t="s">
+        <v>42</v>
+      </c>
+      <c r="I55" t="s">
+        <v>43</v>
+      </c>
+      <c r="J55" t="s">
+        <v>165</v>
+      </c>
+      <c r="K55">
+        <v>824</v>
+      </c>
+      <c r="L55" t="s">
+        <v>43</v>
+      </c>
+      <c r="M55" t="s">
+        <v>43</v>
+      </c>
+      <c r="N55">
+        <v>7600</v>
+      </c>
+      <c r="O55" t="s">
+        <v>43</v>
+      </c>
+      <c r="P55">
+        <v>585708</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>338</v>
+      </c>
+      <c r="R55" t="s">
+        <v>43</v>
+      </c>
+      <c r="S55" t="s">
+        <v>43</v>
+      </c>
+      <c r="T55" t="s">
+        <v>70</v>
+      </c>
+      <c r="U55" t="s">
+        <v>71</v>
+      </c>
+      <c r="V55" t="s">
+        <v>339</v>
+      </c>
+      <c r="W55" t="s">
+        <v>49</v>
+      </c>
+      <c r="X55" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA55">
+        <v>6730056159</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC55">
+        <v>4027005028</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF55" t="s">
         <v>283</v>
       </c>
-      <c r="AG54" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH54">
+      <c r="AG55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH55">
+        <v>585708</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>340</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>334</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B56" t="s">
+        <v>323</v>
+      </c>
+      <c r="C56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" t="s">
+        <v>107</v>
+      </c>
+      <c r="F56" t="s">
+        <v>337</v>
+      </c>
+      <c r="G56" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" t="s">
+        <v>42</v>
+      </c>
+      <c r="I56" t="s">
+        <v>43</v>
+      </c>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+      <c r="K56">
+        <v>331</v>
+      </c>
+      <c r="L56" t="s">
+        <v>43</v>
+      </c>
+      <c r="M56" t="s">
+        <v>43</v>
+      </c>
+      <c r="N56">
+        <v>7600</v>
+      </c>
+      <c r="O56" t="s">
+        <v>43</v>
+      </c>
+      <c r="P56">
+        <v>585708</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>338</v>
+      </c>
+      <c r="R56" t="s">
+        <v>43</v>
+      </c>
+      <c r="S56" t="s">
+        <v>43</v>
+      </c>
+      <c r="T56" t="s">
+        <v>70</v>
+      </c>
+      <c r="U56" t="s">
+        <v>71</v>
+      </c>
+      <c r="V56" t="s">
+        <v>341</v>
+      </c>
+      <c r="W56" t="s">
+        <v>62</v>
+      </c>
+      <c r="X56" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA56">
+        <v>6730056159</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC56">
+        <v>4027005028</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH56">
+        <v>585708</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>334</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" t="s">
+        <v>343</v>
+      </c>
+      <c r="F57" t="s">
+        <v>343</v>
+      </c>
+      <c r="G57" t="s">
+        <v>41</v>
+      </c>
+      <c r="H57" t="s">
+        <v>42</v>
+      </c>
+      <c r="I57" t="s">
+        <v>43</v>
+      </c>
+      <c r="J57" t="s">
+        <v>88</v>
+      </c>
+      <c r="K57">
+        <v>311</v>
+      </c>
+      <c r="L57" t="s">
+        <v>43</v>
+      </c>
+      <c r="M57" t="s">
+        <v>43</v>
+      </c>
+      <c r="N57">
+        <v>4347.2</v>
+      </c>
+      <c r="O57" t="s">
+        <v>43</v>
+      </c>
+      <c r="P57">
         <v>585835</v>
       </c>
-      <c r="AI54" t="s">
-        <v>334</v>
-      </c>
-      <c r="AJ54" t="s">
+      <c r="Q57" t="s">
+        <v>344</v>
+      </c>
+      <c r="R57" t="s">
+        <v>43</v>
+      </c>
+      <c r="S57" t="s">
+        <v>43</v>
+      </c>
+      <c r="T57" t="s">
+        <v>70</v>
+      </c>
+      <c r="U57" t="s">
+        <v>71</v>
+      </c>
+      <c r="V57" t="s">
+        <v>345</v>
+      </c>
+      <c r="W57" t="s">
+        <v>62</v>
+      </c>
+      <c r="X57" t="s">
         <v>91</v>
       </c>
-      <c r="AK54" t="s">
+      <c r="Y57" t="s">
         <v>303</v>
       </c>
-      <c r="AL54" t="s">
+      <c r="Z57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA57">
+        <v>7721632827</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC57">
+        <v>7721632827</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH57">
+        <v>585835</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>346</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK57" t="s">
+        <v>303</v>
+      </c>
+      <c r="AL57" t="s">
         <v>305</v>
       </c>
-      <c r="AM54" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN54" t="s">
+      <c r="AM57" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN57" t="s">
         <v>56</v>
       </c>
     </row>
